--- a/xl/solver/maximum-flow-problem.xlsx
+++ b/xl/solver/maximum-flow-problem.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Websites\excel-easy\examples\excel-files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="435" windowWidth="24675" windowHeight="11790"/>
+    <workbookView xWindow="360" yWindow="435" windowWidth="14100" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,8 +114,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,7 +303,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E64E24D-812A-483C-B425-98300BBA4007}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E64E24D-812A-483C-B425-98300BBA4007}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -383,7 +378,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91075AA9-8CB4-4EC9-95FD-A06B469CE4A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91075AA9-8CB4-4EC9-95FD-A06B469CE4A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,7 +453,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530BBC6D-E1BC-493C-98A7-E8816D004BE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{530BBC6D-E1BC-493C-98A7-E8816D004BE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -533,7 +528,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406D8D21-063A-4915-BC53-CC9BF0EBC24D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{406D8D21-063A-4915-BC53-CC9BF0EBC24D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -608,7 +603,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80398D49-20D6-41BF-9DFF-BD19222EA8BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80398D49-20D6-41BF-9DFF-BD19222EA8BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +678,7 @@
         <xdr:cNvPr id="9" name="Oval 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D58355-3656-44CF-A33B-E9E5C6874053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7D58355-3656-44CF-A33B-E9E5C6874053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,7 +753,7 @@
         <xdr:cNvPr id="10" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CFB5F1-B191-4236-8D3D-59E065DBB648}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9CFB5F1-B191-4236-8D3D-59E065DBB648}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -833,7 +828,7 @@
         <xdr:cNvPr id="103" name="TextBox 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B8464E-52F2-4797-988B-08DE4EA7564E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7B8464E-52F2-4797-988B-08DE4EA7564E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +892,7 @@
         <xdr:cNvPr id="104" name="TextBox 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF68E1E-ECAD-4436-B3EA-26563EE6BFB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CF68E1E-ECAD-4436-B3EA-26563EE6BFB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -961,7 +956,7 @@
         <xdr:cNvPr id="105" name="TextBox 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF56B2D2-31CB-47BF-BA90-32F2325964B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF56B2D2-31CB-47BF-BA90-32F2325964B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1020,7 @@
         <xdr:cNvPr id="151" name="TextBox 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201B0E18-DE47-44A7-BD13-638C4BA95023}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{201B0E18-DE47-44A7-BD13-638C4BA95023}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1084,7 @@
         <xdr:cNvPr id="152" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B07766-9994-45F7-B0F4-14E2DB542B75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B07766-9994-45F7-B0F4-14E2DB542B75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,7 +1148,7 @@
         <xdr:cNvPr id="153" name="TextBox 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40420A-00BD-41BA-B07F-1175A51245F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC40420A-00BD-41BA-B07F-1175A51245F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1212,7 @@
         <xdr:cNvPr id="154" name="TextBox 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A692AF-990B-4F07-921B-188171221D66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73A692AF-990B-4F07-921B-188171221D66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1276,7 @@
         <xdr:cNvPr id="155" name="TextBox 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB39E169-B093-46DE-B3D3-321CE3C0D6F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB39E169-B093-46DE-B3D3-321CE3C0D6F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1340,7 @@
         <xdr:cNvPr id="156" name="TextBox 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED46025B-E1AB-4D5B-B137-D88E73B75C9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED46025B-E1AB-4D5B-B137-D88E73B75C9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1404,7 @@
         <xdr:cNvPr id="157" name="TextBox 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC18D3A0-CA76-418D-B55D-EA31BFCD746F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC18D3A0-CA76-418D-B55D-EA31BFCD746F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1468,7 @@
         <xdr:cNvPr id="158" name="TextBox 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42D745F-1FD2-4054-8F7D-8B963093CE54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D42D745F-1FD2-4054-8F7D-8B963093CE54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1532,7 @@
         <xdr:cNvPr id="159" name="TextBox 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA4A33-480C-4D05-B5C9-0E8B6452FE66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AEA4A33-480C-4D05-B5C9-0E8B6452FE66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1596,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FAB590E-CDDD-47C1-BF14-F242B3C8BACB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FAB590E-CDDD-47C1-BF14-F242B3C8BACB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1655,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077DD03F-1A15-4E0B-8F25-E1F39CE5FC87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{077DD03F-1A15-4E0B-8F25-E1F39CE5FC87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1714,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1842A0F3-9C0C-4CA4-9730-1FEB92347EE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1842A0F3-9C0C-4CA4-9730-1FEB92347EE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1773,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC476F1-7417-455F-896A-6BB41FD90AA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC476F1-7417-455F-896A-6BB41FD90AA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1832,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC95458E-4127-4AA6-8BB7-A9FD8DAE487B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC95458E-4127-4AA6-8BB7-A9FD8DAE487B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1891,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64EB7F8-E21D-4284-92C8-2F9AF92CF0E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B64EB7F8-E21D-4284-92C8-2F9AF92CF0E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1950,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716172F8-EA37-441B-B17E-D9130DEB5AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{716172F8-EA37-441B-B17E-D9130DEB5AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2009,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A234BF-07D5-4C9B-80F6-F9EEC82028DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72A234BF-07D5-4C9B-80F6-F9EEC82028DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2068,7 @@
         <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B2A6EC-0EB4-4792-A298-3207DACEFBA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1B2A6EC-0EB4-4792-A298-3207DACEFBA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2127,7 @@
         <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6252F9B-F0F0-4373-8940-D5A2A6FA5D88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6252F9B-F0F0-4373-8940-D5A2A6FA5D88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2186,7 @@
         <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F745D40-B51A-4AF4-9DD5-7D10206750D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F745D40-B51A-4AF4-9DD5-7D10206750D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2245,7 @@
         <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109A3C62-2977-4738-A622-9DD7727C2D74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{109A3C62-2977-4738-A622-9DD7727C2D74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2389,7 +2384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2583,21 +2578,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="7.42578125" style="1" customWidth="1"/>
@@ -2612,12 +2607,12 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2661,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2786,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2842,7 +2837,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2862,7 +2857,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2879,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2896,7 +2891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -2913,7 +2908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2930,7 +2925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
